--- a/data/test_inputs/values/human_health.xlsx
+++ b/data/test_inputs/values/human_health.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="human_health" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,31 +443,31 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PLA_impellar_virgin_(recipe_endpoint_h)</t>
+          <t>PLA_virgin</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5176666666666667</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>PLA_impellar_recycled_(recipe_endpoint_h)</t>
+          <t>PLA_recycled</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4223333333333333</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PLA_impellar_recycled_industrial_(recipe_endpoint_h)</t>
+          <t>PLA_recycled_industrial</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.69425</v>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
